--- a/public/post/2021-01-28-openxlsx/createCommentExample.xlsx
+++ b/public/post/2021-01-28-openxlsx/createCommentExample.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>zhongyf</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="B10" authorId="0" shapeId="0">
